--- a/analyses/ja1-ja6-protein-overlap.xlsx
+++ b/analyses/ja1-ja6-protein-overlap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56D8A556-82F0-694B-96F7-4B8EA447E5E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F3C628-ADBA-6E4D-BB36-B5BECEB4E51C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="3960" windowWidth="22640" windowHeight="11220" xr2:uid="{EE2AED31-FBC8-B340-AD96-55F0D5F5857B}"/>
+    <workbookView minimized="1" xWindow="1260" yWindow="2540" windowWidth="22640" windowHeight="11220" xr2:uid="{EE2AED31-FBC8-B340-AD96-55F0D5F5857B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="4344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="4351">
   <si>
     <t>Names</t>
   </si>
@@ -13057,6 +13057,27 @@
   </si>
   <si>
     <t>XP_003057202</t>
+  </si>
+  <si>
+    <t>50-1200</t>
+  </si>
+  <si>
+    <t>50-300</t>
+  </si>
+  <si>
+    <t>100-1200</t>
+  </si>
+  <si>
+    <t>50-265</t>
+  </si>
+  <si>
+    <t>100-300</t>
+  </si>
+  <si>
+    <t>50-130</t>
+  </si>
+  <si>
+    <t>100-265</t>
   </si>
 </sst>
 </file>
@@ -13408,15 +13429,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6A691C-40ED-C449-A861-DF5334F3EFD1}">
-  <dimension ref="A1:C4301"/>
+  <dimension ref="A1:G4301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4302"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13427,7 +13451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -13438,17 +13462,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>4344</v>
+      </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="G3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -13458,43 +13491,58 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="G5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>4345</v>
+      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="G6">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="G7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="C8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="G8">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:7">
       <c r="C10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:7">
       <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -13505,17 +13553,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>4346</v>
+      </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:7">
       <c r="C15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -13527,6 +13578,9 @@
       </c>
     </row>
     <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>4347</v>
+      </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -13600,6 +13654,9 @@
       </c>
     </row>
     <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>4345</v>
+      </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
@@ -13641,6 +13698,9 @@
       </c>
     </row>
     <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>4348</v>
+      </c>
       <c r="C35" t="s">
         <v>44</v>
       </c>
@@ -14050,13 +14110,16 @@
         <v>125</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>4346</v>
+      </c>
       <c r="C117" t="s">
         <v>127</v>
       </c>
@@ -14084,6 +14147,9 @@
       </c>
     </row>
     <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>4349</v>
+      </c>
       <c r="C120" t="s">
         <v>132</v>
       </c>
@@ -14534,6 +14600,9 @@
       </c>
     </row>
     <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>4350</v>
+      </c>
       <c r="C204" t="s">
         <v>221</v>
       </c>
@@ -35175,5 +35244,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/analyses/ja1-ja6-protein-overlap.xlsx
+++ b/analyses/ja1-ja6-protein-overlap.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F3C628-ADBA-6E4D-BB36-B5BECEB4E51C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E39D6E8-C823-5244-B464-52F75D8BB81A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1260" yWindow="2540" windowWidth="22640" windowHeight="11220" xr2:uid="{EE2AED31-FBC8-B340-AD96-55F0D5F5857B}"/>
+    <workbookView xWindow="460" yWindow="600" windowWidth="25140" windowHeight="14480" xr2:uid="{EE2AED31-FBC8-B340-AD96-55F0D5F5857B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="4351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="4344">
   <si>
     <t>Names</t>
   </si>
@@ -13057,27 +13057,6 @@
   </si>
   <si>
     <t>XP_003057202</t>
-  </si>
-  <si>
-    <t>50-1200</t>
-  </si>
-  <si>
-    <t>50-300</t>
-  </si>
-  <si>
-    <t>100-1200</t>
-  </si>
-  <si>
-    <t>50-265</t>
-  </si>
-  <si>
-    <t>100-300</t>
-  </si>
-  <si>
-    <t>50-130</t>
-  </si>
-  <si>
-    <t>100-265</t>
   </si>
 </sst>
 </file>
@@ -13429,10 +13408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6A691C-40ED-C449-A861-DF5334F3EFD1}">
-  <dimension ref="A1:G4301"/>
+  <dimension ref="A1:C4301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A990" workbookViewId="0">
+      <selection activeCell="A994" sqref="A994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13440,7 +13419,7 @@
     <col min="1" max="1" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13451,7 +13430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -13462,26 +13441,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>4344</v>
-      </c>
+    <row r="3" spans="1:3">
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:3">
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -13491,58 +13461,43 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="G5">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>4345</v>
-      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="G6">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:3">
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="G8">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:3">
       <c r="C10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -13553,20 +13508,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>4346</v>
-      </c>
+    <row r="14" spans="1:3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -13578,9 +13530,6 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>4347</v>
-      </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -13654,9 +13603,6 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>4345</v>
-      </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
@@ -13698,9 +13644,6 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>4348</v>
-      </c>
       <c r="C35" t="s">
         <v>44</v>
       </c>
@@ -14117,9 +14060,6 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>4346</v>
-      </c>
       <c r="C117" t="s">
         <v>127</v>
       </c>
@@ -14147,9 +14087,6 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>4349</v>
-      </c>
       <c r="C120" t="s">
         <v>132</v>
       </c>
@@ -14600,9 +14537,6 @@
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>4350</v>
-      </c>
       <c r="C204" t="s">
         <v>221</v>
       </c>
